--- a/references/Release9_DataDic/GRIT.xlsx
+++ b/references/Release9_DataDic/GRIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Data Release Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Release9_DataDic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E0FE50-878A-CD47-B6EE-79CE15FA584C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D35A23-B094-2241-A918-4C9B49D6C090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="1400" windowWidth="25040" windowHeight="17820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38380" yWindow="-400" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <t>GRIT_Total</t>
+  </si>
+  <si>
+    <t>1 = Not like me at all
+2 = Not much like me
+3 = Somewhat like me
+4 = Mostly like me 
+5 = Very much like me</t>
   </si>
 </sst>
 </file>
@@ -261,7 +268,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,17 +279,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -634,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,206 +670,206 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -878,7 +879,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
